--- a/database/industries/kashi/kesave/cost/quarterly.xlsx
+++ b/database/industries/kashi/kesave/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C2EAC1-8AD0-465E-9B66-AB027B3CE8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B87E70-1CF3-4909-9663-C4835EF95626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -716,16 +731,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I212"/>
+  <dimension ref="B1:N212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -734,8 +749,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -746,8 +766,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -758,8 +783,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -768,8 +798,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -780,8 +815,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -792,8 +832,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -802,8 +847,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -824,8 +874,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -834,98 +899,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>424450</v>
+      </c>
+      <c r="F10" s="9">
+        <v>495151</v>
+      </c>
+      <c r="G10" s="9">
+        <v>542994</v>
+      </c>
+      <c r="H10" s="9">
+        <v>600577</v>
+      </c>
+      <c r="I10" s="9">
+        <v>824753</v>
+      </c>
+      <c r="J10" s="9">
         <v>927636</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>877893</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>955460</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>1333773</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>1433805</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>75238</v>
+      </c>
+      <c r="F11" s="11">
+        <v>75192</v>
+      </c>
+      <c r="G11" s="11">
+        <v>108736</v>
+      </c>
+      <c r="H11" s="11">
+        <v>136408</v>
+      </c>
+      <c r="I11" s="11">
+        <v>193131</v>
+      </c>
+      <c r="J11" s="11">
         <v>82816</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>249804</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>212685</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>218221</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>291125</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>226437</v>
+      </c>
+      <c r="F12" s="9">
+        <v>303640</v>
+      </c>
+      <c r="G12" s="9">
+        <v>372187</v>
+      </c>
+      <c r="H12" s="9">
+        <v>400167</v>
+      </c>
+      <c r="I12" s="9">
+        <v>442976</v>
+      </c>
+      <c r="J12" s="9">
         <v>615482</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>643668</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>551693</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>659091</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>695892</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>726125</v>
+      </c>
+      <c r="F13" s="13">
+        <v>873983</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1023917</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1137152</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1460860</v>
+      </c>
+      <c r="J13" s="13">
         <v>1625934</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>1771365</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1719838</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>2211085</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>2420822</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -944,65 +1074,110 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>726125</v>
+      </c>
+      <c r="F15" s="13">
+        <v>873983</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1023917</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1137152</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1460860</v>
+      </c>
+      <c r="J15" s="13">
         <v>1625934</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>1771365</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>1719838</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>2211085</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>2420822</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-13739</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4869</v>
+      </c>
+      <c r="G16" s="9">
+        <v>11086</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-34012</v>
+      </c>
+      <c r="I16" s="9">
+        <v>304</v>
+      </c>
+      <c r="J16" s="9">
         <v>-3150</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>29702</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-16894</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-21476</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-1850</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>16184</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>-1599</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>2382</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -1010,32 +1185,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>728570</v>
+      </c>
+      <c r="F18" s="15">
+        <v>877253</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1037385</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1103140</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1461164</v>
+      </c>
+      <c r="J18" s="15">
         <v>1622784</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>1801067</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>1702944</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>2189609</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>2418972</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1043,107 +1248,182 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>9271</v>
+      </c>
+      <c r="H19" s="11">
+        <v>136300</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>117473</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>326406</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>469764</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>666616</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>35350</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4712</v>
+      </c>
+      <c r="G20" s="9">
+        <v>83606</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-233488</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-39151</v>
+      </c>
+      <c r="J20" s="9">
         <v>-117473</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-326406</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-469764</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-666616</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-734773</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>763920</v>
+      </c>
+      <c r="F21" s="13">
+        <v>881965</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1130262</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1005952</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1422013</v>
+      </c>
+      <c r="J21" s="13">
         <v>1505311</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>1864772</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>1559586</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1992757</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>2350815</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>-2340</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>8057</v>
+      </c>
+      <c r="H22" s="9">
+        <v>973</v>
+      </c>
+      <c r="I22" s="9">
+        <v>5864</v>
+      </c>
+      <c r="J22" s="9">
         <v>5152</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>4401</v>
       </c>
-      <c r="G22" s="9">
+      <c r="L22" s="9">
         <v>4863</v>
       </c>
-      <c r="H22" s="9">
+      <c r="M22" s="9">
         <v>4151</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>4590</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>761580</v>
+      </c>
+      <c r="F23" s="13">
+        <v>881965</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1138319</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1006925</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1427877</v>
+      </c>
+      <c r="J23" s="13">
         <v>1510463</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1869173</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>1564449</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1996908</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>2355405</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1152,8 +1432,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1162,8 +1447,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1172,10 +1462,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1194,8 +1489,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1204,220 +1514,360 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>157338</v>
+      </c>
+      <c r="F30" s="11">
+        <v>213141</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="11">
+        <v>303695</v>
+      </c>
+      <c r="I30" s="11">
+        <v>288385</v>
+      </c>
+      <c r="J30" s="11">
         <v>318433</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>309932</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>193748</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>170787</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>124131</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>1304497</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1558129</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="9">
+        <v>2185080</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2227386</v>
+      </c>
+      <c r="J31" s="9">
         <v>2101777</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>2002019</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>1843307</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>1582475</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>1053290</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>16992998</v>
+      </c>
+      <c r="F32" s="11">
+        <v>112005703</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="11">
+        <v>37642402</v>
+      </c>
+      <c r="I32" s="11">
+        <v>29062583</v>
+      </c>
+      <c r="J32" s="11">
         <v>51363823</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>59264615</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>60797525</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>54976872</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>40030829</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>2187584</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2886676</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="9">
+        <v>3952888</v>
+      </c>
+      <c r="I33" s="9">
+        <v>3561509</v>
+      </c>
+      <c r="J33" s="9">
         <v>3828545</v>
       </c>
-      <c r="F33" s="9">
+      <c r="K33" s="9">
         <v>4274432</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>4595066</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>4291571</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>4051735</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>46032</v>
+      </c>
+      <c r="F34" s="11">
+        <v>39376</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="11">
+        <v>58992</v>
+      </c>
+      <c r="I34" s="11">
+        <v>56213</v>
+      </c>
+      <c r="J34" s="11">
         <v>54764</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>52591</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>19331</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>19331</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>28140</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
         <v>136321</v>
       </c>
-      <c r="F36" s="11">
+      <c r="K36" s="11">
         <v>302128</v>
       </c>
-      <c r="G36" s="11">
+      <c r="L36" s="11">
         <v>277895</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>236564</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>10095230</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
+        <v>20688449</v>
+      </c>
+      <c r="F37" s="15">
+        <v>116703025</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>44143057</v>
+      </c>
+      <c r="I37" s="15">
+        <v>35196076</v>
+      </c>
+      <c r="J37" s="15">
         <v>57803663</v>
       </c>
-      <c r="F37" s="15">
+      <c r="K37" s="15">
         <v>66205717</v>
       </c>
-      <c r="G37" s="15">
+      <c r="L37" s="15">
         <v>67726872</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>61277600</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>55383355</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1426,8 +1876,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1436,8 +1891,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1446,10 +1906,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1468,8 +1933,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1478,220 +1958,360 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>153518</v>
+      </c>
+      <c r="F44" s="11">
+        <v>123825</v>
+      </c>
+      <c r="G44" s="11">
+        <v>164715</v>
+      </c>
+      <c r="H44" s="11">
+        <v>74102</v>
+      </c>
+      <c r="I44" s="11">
+        <v>147102</v>
+      </c>
+      <c r="J44" s="11">
         <v>117309</v>
       </c>
-      <c r="F44" s="11">
+      <c r="K44" s="11">
         <v>2785</v>
       </c>
-      <c r="G44" s="11">
+      <c r="L44" s="11">
         <v>69321</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>97000</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>114025</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
+        <v>1879141</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1708997</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1837943</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1405140</v>
+      </c>
+      <c r="I45" s="9">
+        <v>1511936</v>
+      </c>
+      <c r="J45" s="9">
         <v>1639148</v>
       </c>
-      <c r="F45" s="9">
+      <c r="K45" s="9">
         <v>1339573</v>
       </c>
-      <c r="G45" s="9">
+      <c r="L45" s="9">
         <v>1316561</v>
       </c>
-      <c r="H45" s="9">
+      <c r="M45" s="9">
         <v>2293846</v>
       </c>
-      <c r="I45" s="9">
+      <c r="N45" s="9">
         <v>2642923</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>65298074</v>
+      </c>
+      <c r="F46" s="11">
+        <v>40701712</v>
+      </c>
+      <c r="G46" s="11">
+        <v>60451441</v>
+      </c>
+      <c r="H46" s="11">
+        <v>41824819</v>
+      </c>
+      <c r="I46" s="11">
+        <v>81730467</v>
+      </c>
+      <c r="J46" s="11">
         <v>70246406</v>
       </c>
-      <c r="F46" s="11">
+      <c r="K46" s="11">
         <v>53033308</v>
       </c>
-      <c r="G46" s="11">
+      <c r="L46" s="11">
         <v>67765164</v>
       </c>
-      <c r="H46" s="11">
+      <c r="M46" s="11">
         <v>25448498</v>
       </c>
-      <c r="I46" s="11">
+      <c r="N46" s="11">
         <v>68063751</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
+        <v>2597277</v>
+      </c>
+      <c r="F47" s="9">
+        <v>2018019</v>
+      </c>
+      <c r="G47" s="9">
+        <v>2763923</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1408240</v>
+      </c>
+      <c r="I47" s="9">
+        <v>2487542</v>
+      </c>
+      <c r="J47" s="9">
         <v>2708269</v>
       </c>
-      <c r="F47" s="9">
+      <c r="K47" s="9">
         <v>2362714</v>
       </c>
-      <c r="G47" s="9">
+      <c r="L47" s="9">
         <v>1800000</v>
       </c>
-      <c r="H47" s="9">
+      <c r="M47" s="9">
         <v>1837826</v>
       </c>
-      <c r="I47" s="9">
+      <c r="N47" s="9">
         <v>2278762</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>7966</v>
+      </c>
+      <c r="F48" s="11">
+        <v>22122</v>
+      </c>
+      <c r="G48" s="11">
+        <v>12992</v>
+      </c>
+      <c r="H48" s="11">
+        <v>4601</v>
+      </c>
+      <c r="I48" s="11">
+        <v>6726</v>
+      </c>
+      <c r="J48" s="11">
         <v>9476</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>16879</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>69985</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-57737</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>4044</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>508384</v>
+      </c>
+      <c r="J50" s="11">
         <v>157059</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>11365437</v>
       </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
         <v>1647118</v>
       </c>
-      <c r="I50" s="11">
+      <c r="N50" s="11">
         <v>-981780</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
+        <v>69935976</v>
+      </c>
+      <c r="F51" s="15">
+        <v>44574675</v>
+      </c>
+      <c r="G51" s="15">
+        <v>65231014</v>
+      </c>
+      <c r="H51" s="15">
+        <v>44716902</v>
+      </c>
+      <c r="I51" s="15">
+        <v>86392157</v>
+      </c>
+      <c r="J51" s="15">
         <v>74877667</v>
       </c>
-      <c r="F51" s="15">
+      <c r="K51" s="15">
         <v>68120696</v>
       </c>
-      <c r="G51" s="15">
+      <c r="L51" s="15">
         <v>71021031</v>
       </c>
-      <c r="H51" s="15">
+      <c r="M51" s="15">
         <v>31266551</v>
       </c>
-      <c r="I51" s="15">
+      <c r="N51" s="15">
         <v>72121725</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1700,8 +2320,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1710,8 +2335,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1720,10 +2350,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1742,8 +2377,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1752,220 +2402,360 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>97715</v>
+      </c>
+      <c r="F58" s="11">
+        <v>102788</v>
+      </c>
+      <c r="G58" s="11">
+        <v>95198</v>
+      </c>
+      <c r="H58" s="11">
+        <v>89412</v>
+      </c>
+      <c r="I58" s="11">
+        <v>117054</v>
+      </c>
+      <c r="J58" s="11">
         <v>125810</v>
       </c>
-      <c r="F58" s="11">
+      <c r="K58" s="11">
         <v>118969</v>
       </c>
-      <c r="G58" s="11">
+      <c r="L58" s="11">
         <v>92282</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>143656</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>129578</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>1625509</v>
+      </c>
+      <c r="F59" s="9">
+        <v>1512599</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1407390</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1362834</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1637545</v>
+      </c>
+      <c r="J59" s="9">
         <v>1738906</v>
       </c>
-      <c r="F59" s="9">
+      <c r="K59" s="9">
         <v>1418112</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>1577393</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>2891453</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>3148165</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>-29714631</v>
+      </c>
+      <c r="F60" s="11">
+        <v>127118841</v>
+      </c>
+      <c r="G60" s="11">
+        <v>48397613</v>
+      </c>
+      <c r="H60" s="11">
+        <v>50404638</v>
+      </c>
+      <c r="I60" s="11">
+        <v>59429227</v>
+      </c>
+      <c r="J60" s="11">
         <v>62345614</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>51500398</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>73585817</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>40394541</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>66588677</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
+        <v>1935305</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1924428</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1791302</v>
+      </c>
+      <c r="H61" s="9">
+        <v>1799619</v>
+      </c>
+      <c r="I61" s="9">
+        <v>2220506</v>
+      </c>
+      <c r="J61" s="9">
         <v>2262382</v>
       </c>
-      <c r="F61" s="9">
+      <c r="K61" s="9">
         <v>2042080</v>
       </c>
-      <c r="G61" s="9">
+      <c r="L61" s="9">
         <v>2103495</v>
       </c>
-      <c r="H61" s="9">
+      <c r="M61" s="9">
         <v>2077662</v>
       </c>
-      <c r="I61" s="9">
+      <c r="N61" s="9">
         <v>2411828</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
+        <v>7559</v>
+      </c>
+      <c r="F62" s="11">
+        <v>9390</v>
+      </c>
+      <c r="G62" s="11">
+        <v>6108</v>
+      </c>
+      <c r="H62" s="11">
+        <v>7380</v>
+      </c>
+      <c r="I62" s="11">
+        <v>8175</v>
+      </c>
+      <c r="J62" s="11">
         <v>11649</v>
       </c>
-      <c r="F62" s="11">
+      <c r="K62" s="11">
         <v>13464</v>
       </c>
-      <c r="G62" s="11">
+      <c r="L62" s="11">
         <v>69985</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>-49202</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>13823</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F63" s="9">
+        <v>0</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>372063</v>
+      </c>
+      <c r="J64" s="11">
         <v>230166</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>448736</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>41331</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>2592099</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>-2144005</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
+        <v>-26048543</v>
+      </c>
+      <c r="F65" s="15">
+        <v>130668046</v>
+      </c>
+      <c r="G65" s="15">
+        <v>51697611</v>
+      </c>
+      <c r="H65" s="15">
+        <v>53663883</v>
+      </c>
+      <c r="I65" s="15">
+        <v>63784570</v>
+      </c>
+      <c r="J65" s="15">
         <v>66714527</v>
       </c>
-      <c r="F65" s="15">
+      <c r="K65" s="15">
         <v>55541759</v>
       </c>
-      <c r="G65" s="15">
+      <c r="L65" s="15">
         <v>77470303</v>
       </c>
-      <c r="H65" s="15">
+      <c r="M65" s="15">
         <v>48050209</v>
       </c>
-      <c r="I65" s="15">
+      <c r="N65" s="15">
         <v>70148066</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1974,8 +2764,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1984,8 +2779,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1994,10 +2794,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2016,8 +2821,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2026,220 +2846,360 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>213141</v>
+      </c>
+      <c r="F72" s="11">
+        <v>234178</v>
+      </c>
+      <c r="G72" s="11">
+        <v>303695</v>
+      </c>
+      <c r="H72" s="11">
+        <v>288385</v>
+      </c>
+      <c r="I72" s="11">
+        <v>318433</v>
+      </c>
+      <c r="J72" s="11">
         <v>309932</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>193748</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>170787</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>124131</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>93549</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>1558129</v>
+      </c>
+      <c r="F73" s="9">
+        <v>1754527</v>
+      </c>
+      <c r="G73" s="9">
+        <v>2185080</v>
+      </c>
+      <c r="H73" s="9">
+        <v>2227386</v>
+      </c>
+      <c r="I73" s="9">
+        <v>2101777</v>
+      </c>
+      <c r="J73" s="9">
         <v>2002019</v>
       </c>
-      <c r="F73" s="9">
+      <c r="K73" s="9">
         <v>1923480</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>1582475</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>1053290</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>2524101</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
+        <v>112005703</v>
+      </c>
+      <c r="F74" s="11">
+        <v>25588574</v>
+      </c>
+      <c r="G74" s="11">
+        <v>37642402</v>
+      </c>
+      <c r="H74" s="11">
+        <v>29062583</v>
+      </c>
+      <c r="I74" s="11">
+        <v>51363823</v>
+      </c>
+      <c r="J74" s="11">
         <v>59264615</v>
       </c>
-      <c r="F74" s="11">
+      <c r="K74" s="11">
         <v>60797525</v>
       </c>
-      <c r="G74" s="11">
+      <c r="L74" s="11">
         <v>54976872</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>40030829</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>35168186</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
+        <v>2886676</v>
+      </c>
+      <c r="F75" s="9">
+        <v>2980267</v>
+      </c>
+      <c r="G75" s="9">
+        <v>3952888</v>
+      </c>
+      <c r="H75" s="9">
+        <v>3561509</v>
+      </c>
+      <c r="I75" s="9">
+        <v>3828545</v>
+      </c>
+      <c r="J75" s="9">
         <v>4274432</v>
       </c>
-      <c r="F75" s="9">
+      <c r="K75" s="9">
         <v>4595066</v>
       </c>
-      <c r="G75" s="9">
+      <c r="L75" s="9">
         <v>4291571</v>
       </c>
-      <c r="H75" s="9">
+      <c r="M75" s="9">
         <v>4051735</v>
       </c>
-      <c r="I75" s="9">
+      <c r="N75" s="9">
         <v>2716567</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>39376</v>
+      </c>
+      <c r="F76" s="11">
+        <v>52108</v>
+      </c>
+      <c r="G76" s="11">
+        <v>58992</v>
+      </c>
+      <c r="H76" s="11">
+        <v>56213</v>
+      </c>
+      <c r="I76" s="11">
+        <v>54764</v>
+      </c>
+      <c r="J76" s="11">
         <v>52591</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>56006</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>19331</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>28140</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>44456</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F77" s="9">
+        <v>0</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>136321</v>
+      </c>
+      <c r="J78" s="11">
         <v>302128</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>11081542</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>236564</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>10095230</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>573560</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
+        <v>116703025</v>
+      </c>
+      <c r="F79" s="15">
+        <v>30609654</v>
+      </c>
+      <c r="G79" s="15">
+        <v>44143057</v>
+      </c>
+      <c r="H79" s="15">
+        <v>35196076</v>
+      </c>
+      <c r="I79" s="15">
+        <v>57803663</v>
+      </c>
+      <c r="J79" s="15">
         <v>66205717</v>
       </c>
-      <c r="F79" s="15">
+      <c r="K79" s="15">
         <v>78647367</v>
       </c>
-      <c r="G79" s="15">
+      <c r="L79" s="15">
         <v>61277600</v>
       </c>
-      <c r="H79" s="15">
+      <c r="M79" s="15">
         <v>55383355</v>
       </c>
-      <c r="I79" s="15">
+      <c r="N79" s="15">
         <v>41120419</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2248,8 +3208,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2258,8 +3223,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2268,10 +3238,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2290,8 +3265,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2300,222 +3290,362 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>22254</v>
+      </c>
+      <c r="F86" s="11">
+        <v>41391</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="11">
+        <v>90496</v>
+      </c>
+      <c r="I86" s="11">
+        <v>92101</v>
+      </c>
+      <c r="J86" s="11">
         <v>102825</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>111638</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>68422</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>64162</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>49355</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>104780</v>
+      </c>
+      <c r="F87" s="9">
+        <v>143258</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" s="9">
+        <v>338836</v>
+      </c>
+      <c r="I87" s="9">
+        <v>350683</v>
+      </c>
+      <c r="J87" s="9">
         <v>349914</v>
       </c>
-      <c r="F87" s="9">
+      <c r="K87" s="9">
         <v>354581</v>
       </c>
-      <c r="G87" s="9">
+      <c r="L87" s="9">
         <v>350854</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>368784</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>462348</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
+        <v>33476</v>
+      </c>
+      <c r="F88" s="11">
+        <v>48096</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" s="11">
+        <v>73563</v>
+      </c>
+      <c r="I88" s="11">
+        <v>71088</v>
+      </c>
+      <c r="J88" s="11">
         <v>137538</v>
       </c>
-      <c r="F88" s="11">
+      <c r="K88" s="11">
         <v>182439</v>
       </c>
-      <c r="G88" s="11">
+      <c r="L88" s="11">
         <v>123818</v>
       </c>
-      <c r="H88" s="11">
+      <c r="M88" s="11">
         <v>135527</v>
       </c>
-      <c r="I88" s="11">
+      <c r="N88" s="11">
         <v>99545</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
+        <v>50200</v>
+      </c>
+      <c r="F89" s="9">
+        <v>76881</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="9">
+        <v>154802</v>
+      </c>
+      <c r="I89" s="9">
+        <v>148738</v>
+      </c>
+      <c r="J89" s="9">
         <v>183469</v>
       </c>
-      <c r="F89" s="9">
+      <c r="K89" s="9">
         <v>215293</v>
       </c>
-      <c r="G89" s="9">
+      <c r="L89" s="9">
         <v>253329</v>
       </c>
-      <c r="H89" s="9">
+      <c r="M89" s="9">
         <v>261677</v>
       </c>
-      <c r="I89" s="9">
+      <c r="N89" s="9">
         <v>240732</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>29272</v>
+      </c>
+      <c r="F90" s="11">
+        <v>30247</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="11">
+        <v>94943</v>
+      </c>
+      <c r="I90" s="11">
+        <v>93469</v>
+      </c>
+      <c r="J90" s="11">
         <v>89988</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>97164</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>4511</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>4511</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>125113</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>115258</v>
+      </c>
+      <c r="F92" s="11">
+        <v>147567</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="11">
+        <v>238914</v>
+      </c>
+      <c r="I92" s="11">
+        <v>335176</v>
+      </c>
+      <c r="J92" s="11">
         <v>370846</v>
       </c>
-      <c r="F92" s="11">
+      <c r="K92" s="11">
         <v>302128</v>
       </c>
-      <c r="G92" s="11">
+      <c r="L92" s="11">
         <v>277895</v>
       </c>
-      <c r="H92" s="11">
+      <c r="M92" s="11">
         <v>236564</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>269033</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
+        <v>355240</v>
+      </c>
+      <c r="F93" s="15">
+        <v>487440</v>
+      </c>
+      <c r="G93" s="15">
+        <v>0</v>
+      </c>
+      <c r="H93" s="15">
+        <v>991554</v>
+      </c>
+      <c r="I93" s="15">
+        <v>1091255</v>
+      </c>
+      <c r="J93" s="15">
         <v>1234580</v>
       </c>
-      <c r="F93" s="15">
+      <c r="K93" s="15">
         <v>1263243</v>
       </c>
-      <c r="G93" s="15">
+      <c r="L93" s="15">
         <v>1078829</v>
       </c>
-      <c r="H93" s="15">
+      <c r="M93" s="15">
         <v>1071225</v>
       </c>
-      <c r="I93" s="15">
+      <c r="N93" s="15">
         <v>1246126</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2524,8 +3654,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2534,8 +3669,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2544,10 +3684,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2566,8 +3711,23 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2576,222 +3736,362 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>34315</v>
+      </c>
+      <c r="F100" s="11">
+        <v>36453</v>
+      </c>
+      <c r="G100" s="11">
+        <v>59010</v>
+      </c>
+      <c r="H100" s="11">
+        <v>30011</v>
+      </c>
+      <c r="I100" s="11">
+        <v>49611</v>
+      </c>
+      <c r="J100" s="11">
         <v>51274</v>
       </c>
-      <c r="F100" s="11">
+      <c r="K100" s="11">
         <v>1260</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>33140</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>43125</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>48813</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>232487</v>
+      </c>
+      <c r="F101" s="9">
+        <v>322970</v>
+      </c>
+      <c r="G101" s="9">
+        <v>332340</v>
+      </c>
+      <c r="H101" s="9">
+        <v>236903</v>
+      </c>
+      <c r="I101" s="9">
+        <v>291277</v>
+      </c>
+      <c r="J101" s="9">
         <v>345527</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>369561</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>476988</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>502036</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>685737</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>72466</v>
+      </c>
+      <c r="F102" s="11">
+        <v>54089</v>
+      </c>
+      <c r="G102" s="11">
+        <v>102132</v>
+      </c>
+      <c r="H102" s="11">
+        <v>84261</v>
+      </c>
+      <c r="I102" s="11">
+        <v>200716</v>
+      </c>
+      <c r="J102" s="11">
         <v>194403</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>55690</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>214556</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>128952</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>230653</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>72976</v>
+      </c>
+      <c r="F103" s="9">
+        <v>68249</v>
+      </c>
+      <c r="G103" s="9">
+        <v>130461</v>
+      </c>
+      <c r="H103" s="9">
+        <v>78185</v>
+      </c>
+      <c r="I103" s="9">
+        <v>148508</v>
+      </c>
+      <c r="J103" s="9">
         <v>159907</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>160413</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>201350</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>79637</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>174160</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>15457</v>
+      </c>
+      <c r="F104" s="11">
+        <v>56849</v>
+      </c>
+      <c r="G104" s="11">
+        <v>39053</v>
+      </c>
+      <c r="H104" s="11">
+        <v>19083</v>
+      </c>
+      <c r="I104" s="11">
+        <v>25806</v>
+      </c>
+      <c r="J104" s="11">
         <v>43740</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>68208</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>21822</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>67679</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>22981</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F105" s="9">
+        <v>0</v>
+      </c>
+      <c r="G105" s="9">
+        <v>0</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>128949</v>
+      </c>
+      <c r="F106" s="11">
+        <v>151474</v>
+      </c>
+      <c r="G106" s="11">
+        <v>232686</v>
+      </c>
+      <c r="H106" s="11">
+        <v>251835</v>
+      </c>
+      <c r="I106" s="11">
+        <v>208653</v>
+      </c>
+      <c r="J106" s="11">
         <v>204955</v>
       </c>
-      <c r="F106" s="11">
+      <c r="K106" s="11">
         <v>310569</v>
       </c>
-      <c r="G106" s="11">
-        <v>0</v>
-      </c>
-      <c r="H106" s="11">
+      <c r="L106" s="11">
+        <v>0</v>
+      </c>
+      <c r="M106" s="11">
         <v>371516</v>
       </c>
-      <c r="I106" s="11">
+      <c r="N106" s="11">
         <v>260707</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>556650</v>
+      </c>
+      <c r="F107" s="15">
+        <v>690084</v>
+      </c>
+      <c r="G107" s="15">
+        <v>895682</v>
+      </c>
+      <c r="H107" s="15">
+        <v>700278</v>
+      </c>
+      <c r="I107" s="15">
+        <v>924571</v>
+      </c>
+      <c r="J107" s="15">
         <v>999806</v>
       </c>
-      <c r="F107" s="15">
+      <c r="K107" s="15">
         <v>965701</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>947856</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>1192945</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>1423051</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2800,8 +4100,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2810,8 +4115,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2820,10 +4130,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2842,8 +4157,23 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2852,222 +4182,362 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>15178</v>
+      </c>
+      <c r="F114" s="11">
+        <v>21061</v>
+      </c>
+      <c r="G114" s="11">
+        <v>25297</v>
+      </c>
+      <c r="H114" s="11">
+        <v>28406</v>
+      </c>
+      <c r="I114" s="11">
+        <v>38887</v>
+      </c>
+      <c r="J114" s="11">
         <v>42461</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>44476</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>37400</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>57932</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>55015</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>194009</v>
+      </c>
+      <c r="F115" s="9">
+        <v>229458</v>
+      </c>
+      <c r="G115" s="9">
+        <v>230274</v>
+      </c>
+      <c r="H115" s="9">
+        <v>225056</v>
+      </c>
+      <c r="I115" s="9">
+        <v>292046</v>
+      </c>
+      <c r="J115" s="9">
         <v>340860</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>307748</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>459058</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>474012</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>910834</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>57846</v>
+      </c>
+      <c r="F116" s="11">
+        <v>58799</v>
+      </c>
+      <c r="G116" s="11">
+        <v>71955</v>
+      </c>
+      <c r="H116" s="11">
+        <v>86736</v>
+      </c>
+      <c r="I116" s="11">
+        <v>134266</v>
+      </c>
+      <c r="J116" s="11">
         <v>149502</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>114311</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>202847</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>164934</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>235363</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
+        <v>47013</v>
+      </c>
+      <c r="F117" s="9">
+        <v>54006</v>
+      </c>
+      <c r="G117" s="9">
+        <v>66783</v>
+      </c>
+      <c r="H117" s="9">
+        <v>84249</v>
+      </c>
+      <c r="I117" s="9">
+        <v>113777</v>
+      </c>
+      <c r="J117" s="9">
         <v>128083</v>
       </c>
-      <c r="F117" s="9">
+      <c r="K117" s="9">
         <v>122377</v>
       </c>
-      <c r="G117" s="9">
+      <c r="L117" s="9">
         <v>193002</v>
       </c>
-      <c r="H117" s="9">
+      <c r="M117" s="9">
         <v>100582</v>
       </c>
-      <c r="I117" s="9">
+      <c r="N117" s="9">
         <v>184053</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>13644</v>
+      </c>
+      <c r="F118" s="11">
+        <v>16226</v>
+      </c>
+      <c r="G118" s="11">
+        <v>14980</v>
+      </c>
+      <c r="H118" s="11">
+        <v>20557</v>
+      </c>
+      <c r="I118" s="11">
+        <v>29287</v>
+      </c>
+      <c r="J118" s="11">
         <v>36564</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>32141</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>21822</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>71286</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>68636</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F119" s="9">
+        <v>0</v>
+      </c>
+      <c r="G119" s="9">
+        <v>0</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
+        <v>96760</v>
+      </c>
+      <c r="F120" s="11">
+        <v>115601</v>
+      </c>
+      <c r="G120" s="11">
+        <v>133705</v>
+      </c>
+      <c r="H120" s="11">
+        <v>155573</v>
+      </c>
+      <c r="I120" s="11">
+        <v>216490</v>
+      </c>
+      <c r="J120" s="11">
         <v>230166</v>
       </c>
-      <c r="F120" s="11">
+      <c r="K120" s="11">
         <v>256840</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>41331</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>465027</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>-20096</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
+        <v>424450</v>
+      </c>
+      <c r="F121" s="15">
+        <v>495151</v>
+      </c>
+      <c r="G121" s="15">
+        <v>542994</v>
+      </c>
+      <c r="H121" s="15">
+        <v>600577</v>
+      </c>
+      <c r="I121" s="15">
+        <v>824753</v>
+      </c>
+      <c r="J121" s="15">
         <v>927636</v>
       </c>
-      <c r="F121" s="15">
+      <c r="K121" s="15">
         <v>877893</v>
       </c>
-      <c r="G121" s="15">
+      <c r="L121" s="15">
         <v>955460</v>
       </c>
-      <c r="H121" s="15">
+      <c r="M121" s="15">
         <v>1333773</v>
       </c>
-      <c r="I121" s="15">
+      <c r="N121" s="15">
         <v>1433805</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3076,8 +4546,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3086,8 +4561,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3096,10 +4576,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3118,8 +4603,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3128,222 +4628,362 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>41391</v>
+      </c>
+      <c r="F128" s="11">
+        <v>56783</v>
+      </c>
+      <c r="G128" s="11">
+        <v>90496</v>
+      </c>
+      <c r="H128" s="11">
+        <v>92101</v>
+      </c>
+      <c r="I128" s="11">
+        <v>102825</v>
+      </c>
+      <c r="J128" s="11">
         <v>111638</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>68422</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>64162</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>49355</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>40467</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>143258</v>
+      </c>
+      <c r="F129" s="9">
+        <v>236770</v>
+      </c>
+      <c r="G129" s="9">
+        <v>338836</v>
+      </c>
+      <c r="H129" s="9">
+        <v>350683</v>
+      </c>
+      <c r="I129" s="9">
+        <v>349914</v>
+      </c>
+      <c r="J129" s="9">
         <v>354581</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>416394</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>368784</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>462348</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>344488</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
+        <v>48096</v>
+      </c>
+      <c r="F130" s="11">
+        <v>43386</v>
+      </c>
+      <c r="G130" s="11">
+        <v>73563</v>
+      </c>
+      <c r="H130" s="11">
+        <v>71088</v>
+      </c>
+      <c r="I130" s="11">
+        <v>137538</v>
+      </c>
+      <c r="J130" s="11">
         <v>182439</v>
       </c>
-      <c r="F130" s="11">
+      <c r="K130" s="11">
         <v>123818</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>135527</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>99545</v>
       </c>
-      <c r="I130" s="11">
+      <c r="N130" s="11">
         <v>142697</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
+        <v>76881</v>
+      </c>
+      <c r="F131" s="9">
+        <v>91124</v>
+      </c>
+      <c r="G131" s="9">
+        <v>154802</v>
+      </c>
+      <c r="H131" s="9">
+        <v>148738</v>
+      </c>
+      <c r="I131" s="9">
+        <v>183469</v>
+      </c>
+      <c r="J131" s="9">
         <v>215293</v>
       </c>
-      <c r="F131" s="9">
+      <c r="K131" s="9">
         <v>253329</v>
       </c>
-      <c r="G131" s="9">
+      <c r="L131" s="9">
         <v>261677</v>
       </c>
-      <c r="H131" s="9">
+      <c r="M131" s="9">
         <v>240732</v>
       </c>
-      <c r="I131" s="9">
+      <c r="N131" s="9">
         <v>195922</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
+        <v>30247</v>
+      </c>
+      <c r="F132" s="11">
+        <v>70870</v>
+      </c>
+      <c r="G132" s="11">
+        <v>94943</v>
+      </c>
+      <c r="H132" s="11">
+        <v>93469</v>
+      </c>
+      <c r="I132" s="11">
+        <v>89988</v>
+      </c>
+      <c r="J132" s="11">
         <v>97164</v>
       </c>
-      <c r="F132" s="11">
+      <c r="K132" s="11">
         <v>133231</v>
       </c>
-      <c r="G132" s="11">
+      <c r="L132" s="11">
         <v>4511</v>
       </c>
-      <c r="H132" s="11">
+      <c r="M132" s="11">
         <v>125113</v>
       </c>
-      <c r="I132" s="11">
+      <c r="N132" s="11">
         <v>85022</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F133" s="9">
+        <v>0</v>
+      </c>
+      <c r="G133" s="9">
+        <v>0</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>147567</v>
+      </c>
+      <c r="F134" s="11">
+        <v>183440</v>
+      </c>
+      <c r="G134" s="11">
+        <v>282421</v>
+      </c>
+      <c r="H134" s="11">
+        <v>335176</v>
+      </c>
+      <c r="I134" s="11">
+        <v>370846</v>
+      </c>
+      <c r="J134" s="11">
         <v>302128</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>399364</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>236564</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>269033</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>426776</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
+        <v>487440</v>
+      </c>
+      <c r="F135" s="15">
+        <v>682373</v>
+      </c>
+      <c r="G135" s="15">
+        <v>1035061</v>
+      </c>
+      <c r="H135" s="15">
+        <v>1091255</v>
+      </c>
+      <c r="I135" s="15">
+        <v>1234580</v>
+      </c>
+      <c r="J135" s="15">
         <v>1263243</v>
       </c>
-      <c r="F135" s="15">
+      <c r="K135" s="15">
         <v>1394558</v>
       </c>
-      <c r="G135" s="15">
+      <c r="L135" s="15">
         <v>1071225</v>
       </c>
-      <c r="H135" s="15">
+      <c r="M135" s="15">
         <v>1246126</v>
       </c>
-      <c r="I135" s="15">
+      <c r="N135" s="15">
         <v>1235372</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3352,8 +4992,13 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3362,8 +5007,13 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3372,10 +5022,15 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3394,8 +5049,23 @@
       <c r="I139" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3404,152 +5074,247 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
+        <v>141441</v>
+      </c>
+      <c r="F141" s="9">
+        <v>194195</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" s="9">
+        <v>297983</v>
+      </c>
+      <c r="I141" s="9">
+        <v>319368</v>
+      </c>
+      <c r="J141" s="9">
         <v>322909</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>360202</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>353149</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>375684</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>397604</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
+        <v>80322</v>
+      </c>
+      <c r="F142" s="11">
+        <v>91942</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" s="11">
+        <v>155068</v>
+      </c>
+      <c r="I142" s="11">
+        <v>157442</v>
+      </c>
+      <c r="J142" s="11">
         <v>166485</v>
       </c>
-      <c r="F142" s="11">
+      <c r="K142" s="11">
         <v>177112</v>
       </c>
-      <c r="G142" s="11">
+      <c r="L142" s="11">
         <v>190339</v>
       </c>
-      <c r="H142" s="11">
+      <c r="M142" s="11">
         <v>233043</v>
       </c>
-      <c r="I142" s="11">
+      <c r="N142" s="11">
         <v>438956</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
+        <v>1970</v>
+      </c>
+      <c r="F143" s="9">
+        <v>429</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H143" s="9">
+        <v>1954</v>
+      </c>
+      <c r="I143" s="9">
+        <v>2446</v>
+      </c>
+      <c r="J143" s="9">
         <v>2678</v>
       </c>
-      <c r="F143" s="9">
+      <c r="K143" s="9">
         <v>3078</v>
       </c>
-      <c r="G143" s="9">
+      <c r="L143" s="9">
         <v>2037</v>
       </c>
-      <c r="H143" s="9">
+      <c r="M143" s="9">
         <v>2465</v>
       </c>
-      <c r="I143" s="9">
+      <c r="N143" s="9">
         <v>2487</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
+        <v>22948</v>
+      </c>
+      <c r="F144" s="11">
+        <v>26633</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="11">
+        <v>39162</v>
+      </c>
+      <c r="I144" s="11">
+        <v>41763</v>
+      </c>
+      <c r="J144" s="11">
         <v>47921</v>
       </c>
-      <c r="F144" s="11">
+      <c r="K144" s="11">
         <v>50368</v>
       </c>
-      <c r="G144" s="11">
+      <c r="L144" s="11">
         <v>55131</v>
       </c>
-      <c r="H144" s="11">
+      <c r="M144" s="11">
         <v>60975</v>
       </c>
-      <c r="I144" s="11">
+      <c r="N144" s="11">
         <v>59415</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
+        <v>635905</v>
+      </c>
+      <c r="F145" s="9">
+        <v>768158</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H145" s="9">
+        <v>1609422</v>
+      </c>
+      <c r="I145" s="9">
+        <v>1662765</v>
+      </c>
+      <c r="J145" s="9">
         <v>1643196</v>
       </c>
-      <c r="F145" s="9">
+      <c r="K145" s="9">
         <v>1847540</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>233356</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>233356</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>4446091</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11">
+      <c r="E146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J146" s="11">
         <v>2720388</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>1000000</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>1000000</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>1000000</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>26650</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3558,8 +5323,13 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3568,8 +5338,13 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3578,10 +5353,15 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -3600,8 +5380,23 @@
       <c r="I150" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3610,152 +5405,247 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9">
+        <v>223524</v>
+      </c>
+      <c r="F152" s="9">
+        <v>294391</v>
+      </c>
+      <c r="G152" s="9">
+        <v>277289</v>
+      </c>
+      <c r="H152" s="9">
+        <v>404996</v>
+      </c>
+      <c r="I152" s="9">
+        <v>337256</v>
+      </c>
+      <c r="J152" s="9">
         <v>437085</v>
       </c>
-      <c r="F152" s="9">
+      <c r="K152" s="9">
         <v>452424</v>
       </c>
-      <c r="G152" s="9">
+      <c r="L152" s="9">
         <v>478066</v>
       </c>
-      <c r="H152" s="9">
+      <c r="M152" s="9">
         <v>444588</v>
       </c>
-      <c r="I152" s="9">
+      <c r="N152" s="9">
         <v>428090</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
+        <v>123720</v>
+      </c>
+      <c r="F153" s="11">
+        <v>188982</v>
+      </c>
+      <c r="G153" s="11">
+        <v>149505</v>
+      </c>
+      <c r="H153" s="11">
+        <v>168597</v>
+      </c>
+      <c r="I153" s="11">
+        <v>192652</v>
+      </c>
+      <c r="J153" s="11">
         <v>210797</v>
       </c>
-      <c r="F153" s="11">
+      <c r="K153" s="11">
         <v>275880</v>
       </c>
-      <c r="G153" s="11">
+      <c r="L153" s="11">
         <v>362298</v>
       </c>
-      <c r="H153" s="11">
+      <c r="M153" s="11">
         <v>218862</v>
       </c>
-      <c r="I153" s="11">
+      <c r="N153" s="11">
         <v>259462</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
+        <v>1110</v>
+      </c>
+      <c r="F154" s="9">
+        <v>1329</v>
+      </c>
+      <c r="G154" s="9">
+        <v>1361</v>
+      </c>
+      <c r="H154" s="9">
+        <v>2015</v>
+      </c>
+      <c r="I154" s="9">
+        <v>2456</v>
+      </c>
+      <c r="J154" s="9">
         <v>2767</v>
       </c>
-      <c r="F154" s="9">
+      <c r="K154" s="9">
         <v>1050</v>
       </c>
-      <c r="G154" s="9">
+      <c r="L154" s="9">
         <v>3166</v>
       </c>
-      <c r="H154" s="9">
+      <c r="M154" s="9">
         <v>5067</v>
       </c>
-      <c r="I154" s="9">
+      <c r="N154" s="9">
         <v>3389</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
+        <v>28097</v>
+      </c>
+      <c r="F155" s="11">
+        <v>33820</v>
+      </c>
+      <c r="G155" s="11">
+        <v>35171</v>
+      </c>
+      <c r="H155" s="11">
+        <v>55520</v>
+      </c>
+      <c r="I155" s="11">
+        <v>59701</v>
+      </c>
+      <c r="J155" s="11">
         <v>59044</v>
       </c>
-      <c r="F155" s="11">
+      <c r="K155" s="11">
         <v>67894</v>
       </c>
-      <c r="G155" s="11">
+      <c r="L155" s="11">
         <v>111861</v>
       </c>
-      <c r="H155" s="11">
+      <c r="M155" s="11">
         <v>43332</v>
       </c>
-      <c r="I155" s="11">
+      <c r="N155" s="11">
         <v>76427</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
+        <v>1940372</v>
+      </c>
+      <c r="F156" s="9">
+        <v>2569795</v>
+      </c>
+      <c r="G156" s="9">
+        <v>2511676</v>
+      </c>
+      <c r="H156" s="9">
+        <v>4147577</v>
+      </c>
+      <c r="I156" s="9">
+        <v>3836753</v>
+      </c>
+      <c r="J156" s="9">
         <v>4615872</v>
       </c>
-      <c r="F156" s="9">
+      <c r="K156" s="9">
         <v>4040998</v>
       </c>
-      <c r="G156" s="9">
+      <c r="L156" s="9">
         <v>311810</v>
       </c>
-      <c r="H156" s="9">
+      <c r="M156" s="9">
         <v>-1172195</v>
       </c>
-      <c r="I156" s="9">
+      <c r="N156" s="9">
         <v>5682740</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="11">
+      <c r="E157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" s="11">
+        <v>410424</v>
+      </c>
+      <c r="J157" s="11">
         <v>1304955</v>
       </c>
-      <c r="F157" s="11">
+      <c r="K157" s="11">
         <v>27326</v>
       </c>
-      <c r="G157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H157" s="11">
+      <c r="L157" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M157" s="11">
         <v>225555</v>
       </c>
-      <c r="I157" s="11">
+      <c r="N157" s="11">
         <v>-265545</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3764,8 +5654,13 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3774,8 +5669,13 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3784,10 +5684,15 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -3806,8 +5711,23 @@
       <c r="I161" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L161" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M161" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3816,152 +5736,247 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
+        <v>155329</v>
+      </c>
+      <c r="F163" s="9">
+        <v>204897</v>
+      </c>
+      <c r="G163" s="9">
+        <v>193617</v>
+      </c>
+      <c r="H163" s="9">
+        <v>317698</v>
+      </c>
+      <c r="I163" s="9">
+        <v>332214</v>
+      </c>
+      <c r="J163" s="9">
         <v>337501</v>
       </c>
-      <c r="F163" s="9">
+      <c r="K163" s="9">
         <v>373845</v>
       </c>
-      <c r="G163" s="9">
+      <c r="L163" s="9">
         <v>405279</v>
       </c>
-      <c r="H163" s="9">
+      <c r="M163" s="9">
         <v>403269</v>
       </c>
-      <c r="I163" s="9">
+      <c r="N163" s="9">
         <v>424571</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
+        <v>119353</v>
+      </c>
+      <c r="F164" s="11">
+        <v>151698</v>
+      </c>
+      <c r="G164" s="11">
+        <v>131879</v>
+      </c>
+      <c r="H164" s="11">
+        <v>165138</v>
+      </c>
+      <c r="I164" s="11">
+        <v>178344</v>
+      </c>
+      <c r="J164" s="11">
         <v>196020</v>
       </c>
-      <c r="F164" s="11">
+      <c r="K164" s="11">
         <v>217012</v>
       </c>
-      <c r="G164" s="11">
+      <c r="L164" s="11">
         <v>291023</v>
       </c>
-      <c r="H164" s="11">
+      <c r="M164" s="11">
         <v>163936</v>
       </c>
-      <c r="I164" s="11">
+      <c r="N164" s="11">
         <v>289322</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
+        <v>-1947</v>
+      </c>
+      <c r="F165" s="9">
+        <v>463</v>
+      </c>
+      <c r="G165" s="9">
+        <v>1230</v>
+      </c>
+      <c r="H165" s="9">
+        <v>1721</v>
+      </c>
+      <c r="I165" s="9">
+        <v>2259</v>
+      </c>
+      <c r="J165" s="9">
         <v>2398</v>
       </c>
-      <c r="F165" s="9">
+      <c r="K165" s="9">
         <v>2220</v>
       </c>
-      <c r="G165" s="9">
+      <c r="L165" s="9">
         <v>2757</v>
       </c>
-      <c r="H165" s="9">
+      <c r="M165" s="9">
         <v>4083</v>
       </c>
-      <c r="I165" s="9">
+      <c r="N165" s="9">
         <v>3535</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
+        <v>24292</v>
+      </c>
+      <c r="F166" s="11">
+        <v>28063</v>
+      </c>
+      <c r="G166" s="11">
+        <v>27702</v>
+      </c>
+      <c r="H166" s="11">
+        <v>46815</v>
+      </c>
+      <c r="I166" s="11">
+        <v>51239</v>
+      </c>
+      <c r="J166" s="11">
         <v>56614</v>
       </c>
-      <c r="F166" s="11">
+      <c r="K166" s="11">
         <v>59928</v>
       </c>
-      <c r="G166" s="11">
+      <c r="L166" s="11">
         <v>91753</v>
       </c>
-      <c r="H166" s="11">
+      <c r="M166" s="11">
         <v>48411</v>
       </c>
-      <c r="I166" s="11">
+      <c r="N166" s="11">
         <v>76313</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
+        <v>1805001</v>
+      </c>
+      <c r="F167" s="9">
+        <v>1728009</v>
+      </c>
+      <c r="G167" s="9">
+        <v>1895839</v>
+      </c>
+      <c r="H167" s="9">
+        <v>2785501</v>
+      </c>
+      <c r="I167" s="9">
+        <v>3582508</v>
+      </c>
+      <c r="J167" s="9">
         <v>3138810</v>
       </c>
-      <c r="F167" s="9">
+      <c r="K167" s="9">
         <v>2387181</v>
       </c>
-      <c r="G167" s="9">
+      <c r="L167" s="9">
         <v>311810</v>
       </c>
-      <c r="H167" s="9">
+      <c r="M167" s="9">
         <v>-1448844</v>
       </c>
-      <c r="I167" s="9">
+      <c r="N167" s="9">
         <v>4965348</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D168" s="11"/>
-      <c r="E168" s="11">
+      <c r="E168" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I168" s="11">
+        <v>581864</v>
+      </c>
+      <c r="J168" s="11">
         <v>1000000</v>
       </c>
-      <c r="F168" s="11">
+      <c r="K168" s="11">
         <v>572363</v>
       </c>
-      <c r="G168" s="11">
+      <c r="L168" s="11">
         <v>1000000</v>
       </c>
-      <c r="H168" s="11">
+      <c r="M168" s="11">
         <v>179402</v>
       </c>
-      <c r="I168" s="11">
+      <c r="N168" s="11">
         <v>9373</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3970,8 +5985,13 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3980,8 +6000,13 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -3990,10 +6015,15 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B172" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -4012,8 +6042,23 @@
       <c r="I172" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K172" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M172" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N172" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4022,150 +6067,245 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D174" s="9"/>
-      <c r="E174" s="9">
+      <c r="E174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F174" s="9">
+        <v>242478</v>
+      </c>
+      <c r="G174" s="9">
+        <v>297983</v>
+      </c>
+      <c r="H174" s="9">
+        <v>319368</v>
+      </c>
+      <c r="I174" s="9">
+        <v>322909</v>
+      </c>
+      <c r="J174" s="9">
         <v>360202</v>
       </c>
-      <c r="F174" s="9">
+      <c r="K174" s="9">
         <v>353149</v>
       </c>
-      <c r="G174" s="9">
+      <c r="L174" s="9">
         <v>375684</v>
       </c>
-      <c r="H174" s="9">
+      <c r="M174" s="9">
         <v>397604</v>
       </c>
-      <c r="I174" s="9">
+      <c r="N174" s="9">
         <v>432575</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D175" s="11"/>
-      <c r="E175" s="11">
+      <c r="E175" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F175" s="11">
+        <v>134948</v>
+      </c>
+      <c r="G175" s="11">
+        <v>155068</v>
+      </c>
+      <c r="H175" s="11">
+        <v>157442</v>
+      </c>
+      <c r="I175" s="11">
+        <v>166485</v>
+      </c>
+      <c r="J175" s="11">
         <v>177112</v>
       </c>
-      <c r="F175" s="11">
+      <c r="K175" s="11">
         <v>216480</v>
       </c>
-      <c r="G175" s="11">
+      <c r="L175" s="11">
         <v>233043</v>
       </c>
-      <c r="H175" s="11">
+      <c r="M175" s="11">
         <v>438956</v>
       </c>
-      <c r="I175" s="11">
+      <c r="N175" s="11">
         <v>136479</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D176" s="9"/>
-      <c r="E176" s="9">
+      <c r="E176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F176" s="9">
+        <v>1696</v>
+      </c>
+      <c r="G176" s="9">
+        <v>1954</v>
+      </c>
+      <c r="H176" s="9">
+        <v>2446</v>
+      </c>
+      <c r="I176" s="9">
+        <v>2678</v>
+      </c>
+      <c r="J176" s="9">
         <v>3078</v>
       </c>
-      <c r="F176" s="9">
+      <c r="K176" s="9">
         <v>2037</v>
       </c>
-      <c r="G176" s="9">
+      <c r="L176" s="9">
         <v>2465</v>
       </c>
-      <c r="H176" s="9">
+      <c r="M176" s="9">
         <v>2487</v>
       </c>
-      <c r="I176" s="9">
+      <c r="N176" s="9">
         <v>4058</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D177" s="11"/>
-      <c r="E177" s="11">
+      <c r="E177" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F177" s="11">
+        <v>30576</v>
+      </c>
+      <c r="G177" s="11">
+        <v>39162</v>
+      </c>
+      <c r="H177" s="11">
+        <v>41763</v>
+      </c>
+      <c r="I177" s="11">
+        <v>47921</v>
+      </c>
+      <c r="J177" s="11">
         <v>50368</v>
       </c>
-      <c r="F177" s="11">
+      <c r="K177" s="11">
         <v>55131</v>
       </c>
-      <c r="G177" s="11">
+      <c r="L177" s="11">
         <v>60975</v>
       </c>
-      <c r="H177" s="11">
+      <c r="M177" s="11">
         <v>59415</v>
       </c>
-      <c r="I177" s="11">
+      <c r="N177" s="11">
         <v>72121</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C178" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D178" s="9"/>
-      <c r="E178" s="9">
+      <c r="E178" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F178" s="9">
+        <v>1360060</v>
+      </c>
+      <c r="G178" s="9">
+        <v>1609422</v>
+      </c>
+      <c r="H178" s="9">
+        <v>1662765</v>
+      </c>
+      <c r="I178" s="9">
+        <v>1643196</v>
+      </c>
+      <c r="J178" s="9">
         <v>1847540</v>
       </c>
-      <c r="F178" s="9">
+      <c r="K178" s="9">
         <v>2378870</v>
       </c>
-      <c r="G178" s="9">
+      <c r="L178" s="9">
         <v>233356</v>
       </c>
-      <c r="H178" s="9">
+      <c r="M178" s="9">
         <v>4446091</v>
       </c>
-      <c r="I178" s="9">
+      <c r="N178" s="9">
         <v>1912498</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
-      <c r="E179" s="11">
+      <c r="E179" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H179" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I179" s="11">
+        <v>2720388</v>
+      </c>
+      <c r="J179" s="11">
         <v>1000000</v>
       </c>
-      <c r="F179" s="11">
+      <c r="K179" s="11">
         <v>36039</v>
       </c>
-      <c r="G179" s="11">
+      <c r="L179" s="11">
         <v>1000000</v>
       </c>
-      <c r="H179" s="11">
+      <c r="M179" s="11">
         <v>26650</v>
       </c>
-      <c r="I179" s="11">
+      <c r="N179" s="11">
         <v>744083</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4174,8 +6314,13 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4184,8 +6329,13 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4194,10 +6344,15 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -4216,8 +6371,23 @@
       <c r="I183" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K183" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M183" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N183" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4226,10 +6396,15 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
@@ -4248,10 +6423,25 @@
       <c r="I185" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J185" s="9">
+        <v>0</v>
+      </c>
+      <c r="K185" s="9">
+        <v>0</v>
+      </c>
+      <c r="L185" s="9">
+        <v>0</v>
+      </c>
+      <c r="M185" s="9">
+        <v>0</v>
+      </c>
+      <c r="N185" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -4270,10 +6460,25 @@
       <c r="I186" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="11">
+        <v>0</v>
+      </c>
+      <c r="K186" s="11">
+        <v>0</v>
+      </c>
+      <c r="L186" s="11">
+        <v>0</v>
+      </c>
+      <c r="M186" s="11">
+        <v>0</v>
+      </c>
+      <c r="N186" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -4292,10 +6497,25 @@
       <c r="I187" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="9">
+        <v>0</v>
+      </c>
+      <c r="K187" s="9">
+        <v>0</v>
+      </c>
+      <c r="L187" s="9">
+        <v>0</v>
+      </c>
+      <c r="M187" s="9">
+        <v>0</v>
+      </c>
+      <c r="N187" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -4314,98 +6534,173 @@
       <c r="I188" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J188" s="11">
+        <v>0</v>
+      </c>
+      <c r="K188" s="11">
+        <v>0</v>
+      </c>
+      <c r="L188" s="11">
+        <v>0</v>
+      </c>
+      <c r="M188" s="11">
+        <v>0</v>
+      </c>
+      <c r="N188" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="9">
+        <v>37499</v>
+      </c>
+      <c r="F189" s="9">
+        <v>24610</v>
+      </c>
+      <c r="G189" s="9">
+        <v>38268</v>
+      </c>
+      <c r="H189" s="9">
+        <v>86432</v>
+      </c>
+      <c r="I189" s="9">
+        <v>58107</v>
+      </c>
+      <c r="J189" s="9">
         <v>65420</v>
       </c>
-      <c r="F189" s="9">
+      <c r="K189" s="9">
         <v>87693</v>
       </c>
-      <c r="G189" s="9">
+      <c r="L189" s="9">
         <v>69905</v>
       </c>
-      <c r="H189" s="9">
+      <c r="M189" s="9">
         <v>106805</v>
       </c>
-      <c r="I189" s="9">
+      <c r="N189" s="9">
         <v>14780</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
+        <v>18207</v>
+      </c>
+      <c r="F190" s="11">
+        <v>23450</v>
+      </c>
+      <c r="G190" s="11">
+        <v>40432</v>
+      </c>
+      <c r="H190" s="11">
+        <v>39364</v>
+      </c>
+      <c r="I190" s="11">
+        <v>53706</v>
+      </c>
+      <c r="J190" s="11">
         <v>62139</v>
       </c>
-      <c r="F190" s="11">
+      <c r="K190" s="11">
         <v>105622</v>
       </c>
-      <c r="G190" s="11">
+      <c r="L190" s="11">
         <v>90335</v>
       </c>
-      <c r="H190" s="11">
+      <c r="M190" s="11">
         <v>60231</v>
       </c>
-      <c r="I190" s="11">
+      <c r="N190" s="11">
         <v>91305</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="9">
+        <v>14636</v>
+      </c>
+      <c r="F191" s="9">
+        <v>19807</v>
+      </c>
+      <c r="G191" s="9">
+        <v>24026</v>
+      </c>
+      <c r="H191" s="9">
+        <v>33112</v>
+      </c>
+      <c r="I191" s="9">
+        <v>37908</v>
+      </c>
+      <c r="J191" s="9">
         <v>38703</v>
       </c>
-      <c r="F191" s="9">
+      <c r="K191" s="9">
         <v>23065</v>
       </c>
-      <c r="G191" s="9">
+      <c r="L191" s="9">
         <v>45639</v>
       </c>
-      <c r="H191" s="9">
+      <c r="M191" s="9">
         <v>49002</v>
       </c>
-      <c r="I191" s="9">
+      <c r="N191" s="9">
         <v>53751</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11">
+        <v>71143</v>
+      </c>
+      <c r="F192" s="11">
+        <v>58382</v>
+      </c>
+      <c r="G192" s="11">
+        <v>85264</v>
+      </c>
+      <c r="H192" s="11">
+        <v>104288</v>
+      </c>
+      <c r="I192" s="11">
+        <v>137550</v>
+      </c>
+      <c r="J192" s="11">
         <v>102618</v>
       </c>
-      <c r="F192" s="11">
+      <c r="K192" s="11">
         <v>154252</v>
       </c>
-      <c r="G192" s="11">
+      <c r="L192" s="11">
         <v>158360</v>
       </c>
-      <c r="H192" s="11">
+      <c r="M192" s="11">
         <v>146439</v>
       </c>
-      <c r="I192" s="11">
+      <c r="N192" s="11">
         <v>222807</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
@@ -4424,52 +6719,97 @@
       <c r="I193" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="9">
+        <v>0</v>
+      </c>
+      <c r="K193" s="9">
+        <v>0</v>
+      </c>
+      <c r="L193" s="9">
+        <v>0</v>
+      </c>
+      <c r="M193" s="9">
+        <v>0</v>
+      </c>
+      <c r="N193" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11">
+        <v>84952</v>
+      </c>
+      <c r="F194" s="11">
+        <v>177391</v>
+      </c>
+      <c r="G194" s="11">
+        <v>184197</v>
+      </c>
+      <c r="H194" s="11">
+        <v>136971</v>
+      </c>
+      <c r="I194" s="11">
+        <v>155705</v>
+      </c>
+      <c r="J194" s="11">
         <v>346602</v>
       </c>
-      <c r="F194" s="11">
+      <c r="K194" s="11">
         <v>273036</v>
       </c>
-      <c r="G194" s="11">
+      <c r="L194" s="11">
         <v>187454</v>
       </c>
-      <c r="H194" s="11">
+      <c r="M194" s="11">
         <v>296614</v>
       </c>
-      <c r="I194" s="11">
+      <c r="N194" s="11">
         <v>313249</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C195" s="15"/>
       <c r="D195" s="15"/>
       <c r="E195" s="15">
+        <v>226437</v>
+      </c>
+      <c r="F195" s="15">
+        <v>303640</v>
+      </c>
+      <c r="G195" s="15">
+        <v>372187</v>
+      </c>
+      <c r="H195" s="15">
+        <v>400167</v>
+      </c>
+      <c r="I195" s="15">
+        <v>442976</v>
+      </c>
+      <c r="J195" s="15">
         <v>615482</v>
       </c>
-      <c r="F195" s="15">
+      <c r="K195" s="15">
         <v>643668</v>
       </c>
-      <c r="G195" s="15">
+      <c r="L195" s="15">
         <v>551693</v>
       </c>
-      <c r="H195" s="15">
+      <c r="M195" s="15">
         <v>659091</v>
       </c>
-      <c r="I195" s="15">
+      <c r="N195" s="15">
         <v>695892</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4478,8 +6818,13 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -4488,8 +6833,13 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -4498,10 +6848,15 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -4510,8 +6865,13 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4520,13 +6880,18 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -4534,123 +6899,128 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>

--- a/database/industries/kashi/kesave/cost/quarterly.xlsx
+++ b/database/industries/kashi/kesave/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B87E70-1CF3-4909-9663-C4835EF95626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2ED276-C88E-4039-903B-9AC6B574A37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -735,12 +735,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -755,7 +755,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -772,7 +772,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -804,7 +804,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -838,7 +838,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -853,7 +853,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -890,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -905,7 +905,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -942,7 +942,7 @@
         <v>1433805</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -979,7 +979,7 @@
         <v>291125</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>695892</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>2420822</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>2420822</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>-1850</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>2418972</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>9271</v>
+        <v>219905</v>
       </c>
       <c r="H19" s="11">
         <v>136300</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>233488</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>272639</v>
       </c>
       <c r="K19" s="11">
-        <v>117473</v>
+        <v>390112</v>
       </c>
       <c r="L19" s="11">
         <v>326406</v>
@@ -1275,7 +1275,7 @@
         <v>666616</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1288,16 +1288,16 @@
         <v>4712</v>
       </c>
       <c r="G20" s="9">
-        <v>83606</v>
+        <v>-136299</v>
       </c>
       <c r="H20" s="9">
         <v>-233488</v>
       </c>
       <c r="I20" s="9">
-        <v>-39151</v>
+        <v>-272639</v>
       </c>
       <c r="J20" s="9">
-        <v>-117473</v>
+        <v>-390112</v>
       </c>
       <c r="K20" s="9">
         <v>-326406</v>
@@ -1312,7 +1312,7 @@
         <v>-734773</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>2350815</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>2355405</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1438,7 +1438,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1453,7 +1453,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1468,7 +1468,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1520,7 +1520,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>124131</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>1053290</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>40030829</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>4051735</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>38</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>28140</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>40</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>10095230</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>17</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>55383355</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1882,7 +1882,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1897,7 +1897,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1912,7 +1912,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>41</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1964,7 +1964,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>29</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>32</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>114025</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>34</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>2642923</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>35</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>68063751</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>36</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>2278762</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>38</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>4044</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>39</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>40</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>-981780</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>17</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>72121725</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2326,7 +2326,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2341,7 +2341,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2356,7 +2356,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>43</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2408,7 +2408,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>32</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>129578</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>34</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>3148165</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>35</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>66588677</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>36</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>2411828</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>38</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>13823</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>39</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>40</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>-2144005</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>70148066</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2770,7 +2770,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2785,7 +2785,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2800,7 +2800,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>44</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2852,7 +2852,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>32</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>93549</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>34</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>2524101</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>35</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>35168186</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>36</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>2716567</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>38</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>39</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>40</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>573560</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>41120419</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3214,7 +3214,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3229,7 +3229,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3244,7 +3244,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>45</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3296,7 +3296,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>49355</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>34</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>462348</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>35</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>99545</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>36</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>240732</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>38</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>125113</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>39</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>40</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>269033</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>17</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>1246126</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3660,7 +3660,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3675,7 +3675,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3690,7 +3690,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>46</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3742,7 +3742,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>32</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>48813</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>34</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>685737</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>35</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>230653</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>36</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>174160</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>38</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>22981</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>39</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>40</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>260707</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>17</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>1423051</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4106,7 +4106,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4121,7 +4121,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4136,7 +4136,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>47</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4188,7 +4188,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>29</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>32</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>55015</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>34</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>910834</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>35</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>235363</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>36</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>184053</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>38</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>68636</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>39</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>40</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>-20096</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>17</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1433805</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4552,7 +4552,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4567,7 +4567,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4582,7 +4582,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>48</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4634,7 +4634,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>32</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>40467</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>34</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>344488</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>35</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>142697</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>36</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>195922</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>38</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>85022</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>39</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>40</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>426776</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>17</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>1235372</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4998,7 +4998,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5013,7 +5013,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5028,7 +5028,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>49</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5080,7 +5080,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>32</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>397604</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>34</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>438956</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>35</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>36</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>59415</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>38</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>4446091</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>40</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>26650</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5329,7 +5329,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5344,7 +5344,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5359,7 +5359,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>53</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5411,7 +5411,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>32</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>428090</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>34</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>259462</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>35</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>36</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>76427</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>38</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>5682740</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>40</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>-265545</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5660,7 +5660,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5675,7 +5675,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5690,7 +5690,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
         <v>54</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5742,7 +5742,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>32</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>424571</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>34</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>289322</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>35</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>36</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>76313</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>38</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>4965348</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>40</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>9373</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5991,7 +5991,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -6006,7 +6006,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -6021,7 +6021,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B172" s="7" t="s">
         <v>55</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -6073,7 +6073,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="8" t="s">
         <v>32</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>432575</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>34</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>136479</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
         <v>35</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>36</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>72121</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>38</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>1912498</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>40</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>744083</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -6320,7 +6320,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -6335,7 +6335,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -6350,7 +6350,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B183" s="7" t="s">
         <v>56</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -6402,7 +6402,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>57</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>58</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>59</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>60</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>61</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>14780</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>62</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>91305</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>63</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>53751</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>64</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>222807</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>65</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>66</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>313249</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="14" t="s">
         <v>17</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>695892</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -6824,7 +6824,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -6839,7 +6839,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -6854,7 +6854,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B199" s="7" t="s">
         <v>67</v>
       </c>
@@ -6871,7 +6871,7 @@
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -6886,7 +6886,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>68</v>
       </c>
@@ -6905,7 +6905,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>70</v>
       </c>
@@ -6916,7 +6916,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>71</v>
       </c>
@@ -6927,7 +6927,7 @@
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>72</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>73</v>
       </c>
@@ -6949,7 +6949,7 @@
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>75</v>
       </c>
@@ -6960,7 +6960,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>77</v>
       </c>
@@ -6971,7 +6971,7 @@
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>79</v>
       </c>
@@ -6982,7 +6982,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>81</v>
       </c>
@@ -6993,7 +6993,7 @@
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>71</v>
       </c>
@@ -7004,7 +7004,7 @@
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>83</v>
       </c>
@@ -7015,7 +7015,7 @@
       <c r="E211" s="9"/>
       <c r="F211" s="9"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="10" t="s">
         <v>84</v>
       </c>
